--- a/Straight_Razor_Entries.xlsx
+++ b/Straight_Razor_Entries.xlsx
@@ -41,12 +41,27 @@
         <t xml:space="preserve">Responder updated this value.</t>
       </text>
     </comment>
+    <comment authorId="0" ref="D7">
+      <text>
+        <t xml:space="preserve">Responder updated this value.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E8">
+      <text>
+        <t xml:space="preserve">Responder updated this value.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F9">
+      <text>
+        <t xml:space="preserve">Responder updated this value.</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="81">
   <si>
     <t>Timestamp</t>
   </si>
@@ -156,130 +171,139 @@
     <t>rmyer2313@gmail.com</t>
   </si>
   <si>
+    <t>Chris Riffert</t>
+  </si>
+  <si>
+    <t>Travis Hunter</t>
+  </si>
+  <si>
+    <t>Abdul Carter</t>
+  </si>
+  <si>
+    <t>Cam Ward</t>
+  </si>
+  <si>
+    <t>Will Campbell</t>
+  </si>
+  <si>
+    <t>Mason Graham</t>
+  </si>
+  <si>
+    <t>Tetairoa McMillan</t>
+  </si>
+  <si>
+    <t>Armand Membou</t>
+  </si>
+  <si>
+    <t>Kelvin Banks Jr.</t>
+  </si>
+  <si>
+    <t>Jalon Walker</t>
+  </si>
+  <si>
+    <t>Ashton Jeanty</t>
+  </si>
+  <si>
+    <t>Colston Loveland</t>
+  </si>
+  <si>
+    <t>Mike Green</t>
+  </si>
+  <si>
+    <t>Jahdae Barron</t>
+  </si>
+  <si>
+    <t>Malaki Starks</t>
+  </si>
+  <si>
+    <t>Luther Burden III</t>
+  </si>
+  <si>
+    <t>Jihaad Campbell</t>
+  </si>
+  <si>
+    <t>Walter Nolen</t>
+  </si>
+  <si>
+    <t>James Pearce Jr.</t>
+  </si>
+  <si>
+    <t>Josh Simmons</t>
+  </si>
+  <si>
+    <t>Nick Emmanwori</t>
+  </si>
+  <si>
+    <t>Matthew Golden</t>
+  </si>
+  <si>
+    <t>Shemar Stewart</t>
+  </si>
+  <si>
+    <t>Will Johnson</t>
+  </si>
+  <si>
+    <t>Tyler Booker</t>
+  </si>
+  <si>
+    <t>Mykel Williams</t>
+  </si>
+  <si>
+    <t>Tyler Warren</t>
+  </si>
+  <si>
+    <t>Shedeur Sanders</t>
+  </si>
+  <si>
+    <t>Nic Scourton</t>
+  </si>
+  <si>
+    <t>Grey Zabel</t>
+  </si>
+  <si>
+    <t>Derrick Harmon</t>
+  </si>
+  <si>
+    <t>Emeka Egbuka</t>
+  </si>
+  <si>
+    <t>Lewis Cine</t>
+  </si>
+  <si>
+    <t>kmount9855@gmail.com</t>
+  </si>
+  <si>
+    <t>Kevin Mount</t>
+  </si>
+  <si>
+    <t>cole.transue222@yanoo.com</t>
+  </si>
+  <si>
+    <t>Mike Sparrow</t>
+  </si>
+  <si>
+    <t>fzayas19@yahoo.com</t>
+  </si>
+  <si>
+    <t>Mike Morris</t>
+  </si>
+  <si>
+    <t>zags66@yahoo.com</t>
+  </si>
+  <si>
+    <t>Todd Franzen</t>
+  </si>
+  <si>
+    <t>Ahmad Gardner</t>
+  </si>
+  <si>
+    <t>Frankie Zayas</t>
+  </si>
+  <si>
+    <t>Phillip Suitts</t>
+  </si>
+  <si>
     <t>Chris Parker</t>
-  </si>
-  <si>
-    <t>Travis Hunter</t>
-  </si>
-  <si>
-    <t>Abdul Carter</t>
-  </si>
-  <si>
-    <t>Cam Ward</t>
-  </si>
-  <si>
-    <t>Will Campbell</t>
-  </si>
-  <si>
-    <t>Mason Graham</t>
-  </si>
-  <si>
-    <t>Tetairoa McMillan</t>
-  </si>
-  <si>
-    <t>Armand Membou</t>
-  </si>
-  <si>
-    <t>Kelvin Banks Jr.</t>
-  </si>
-  <si>
-    <t>Jalon Walker</t>
-  </si>
-  <si>
-    <t>Ashton Jeanty</t>
-  </si>
-  <si>
-    <t>Colston Loveland</t>
-  </si>
-  <si>
-    <t>Mike Green</t>
-  </si>
-  <si>
-    <t>Jahdae Barron</t>
-  </si>
-  <si>
-    <t>Malaki Starks</t>
-  </si>
-  <si>
-    <t>Luther Burden III</t>
-  </si>
-  <si>
-    <t>Jihaad Campbell</t>
-  </si>
-  <si>
-    <t>Walter Nolen</t>
-  </si>
-  <si>
-    <t>James Pearce Jr.</t>
-  </si>
-  <si>
-    <t>Josh Simmons</t>
-  </si>
-  <si>
-    <t>Nick Emmanwori</t>
-  </si>
-  <si>
-    <t>Matthew Golden</t>
-  </si>
-  <si>
-    <t>Shemar Stewart</t>
-  </si>
-  <si>
-    <t>Will Johnson</t>
-  </si>
-  <si>
-    <t>Tyler Booker</t>
-  </si>
-  <si>
-    <t>Mykel Williams</t>
-  </si>
-  <si>
-    <t>Tyler Warren</t>
-  </si>
-  <si>
-    <t>Shedeur Sanders</t>
-  </si>
-  <si>
-    <t>Nic Scourton</t>
-  </si>
-  <si>
-    <t>Grey Zabel</t>
-  </si>
-  <si>
-    <t>Derrick Harmon</t>
-  </si>
-  <si>
-    <t>Emeka Egbuka</t>
-  </si>
-  <si>
-    <t>Lewis Cine</t>
-  </si>
-  <si>
-    <t>kmount9855@gmail.com</t>
-  </si>
-  <si>
-    <t>Kevin Mount</t>
-  </si>
-  <si>
-    <t>cole.transue222@yanoo.com</t>
-  </si>
-  <si>
-    <t>Mike Sparrow</t>
-  </si>
-  <si>
-    <t>fzayas19@yahoo.com</t>
-  </si>
-  <si>
-    <t>Mike Morris</t>
-  </si>
-  <si>
-    <t>zags66@yahoo.com</t>
-  </si>
-  <si>
-    <t>Todd Franzen</t>
-  </si>
-  <si>
-    <t>Ahmad Gardner</t>
   </si>
 </sst>
 </file>
@@ -289,7 +313,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -299,6 +323,11 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -315,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -327,6 +356,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1186,6 +1218,327 @@
         <v>65</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="2">
+        <v>44680.275181550925</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2">
+        <v>44680.275181550925</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2">
+        <v>44680.275181550925</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI9" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>

--- a/Straight_Razor_Entries.xlsx
+++ b/Straight_Razor_Entries.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="92">
   <si>
     <t>Timestamp</t>
   </si>
@@ -306,7 +306,7 @@
     <t>fzayas19@yahoo.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Frankie Zayas </t>
+    <t>Frankie Zayas</t>
   </si>
   <si>
     <t>Shavon Revel Jr. -- East Carolina Sr CB</t>
@@ -334,6 +334,9 @@
   </si>
   <si>
     <t>Mike Morris</t>
+  </si>
+  <si>
+    <t>Kraig Kuster</t>
   </si>
 </sst>
 </file>
@@ -379,7 +382,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border/>
     <border>
       <left style="thin">
@@ -465,11 +468,39 @@
         <color rgb="FF442F65"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -498,6 +529,9 @@
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="3" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="5" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -507,6 +541,12 @@
       <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="6" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -556,7 +596,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C2:AI9" displayName="Table_1" name="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C2:AI10" displayName="Table_1" name="Table_1" id="1">
   <tableColumns count="33">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -1238,7 +1278,7 @@
       <c r="B5" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="9" t="s">
         <v>81</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -1452,7 +1492,7 @@
       <c r="B7" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>88</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -1666,104 +1706,211 @@
       <c r="B9" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="M9" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="N9" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="O9" s="11" t="s">
+      <c r="O9" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="P9" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="Q9" s="11" t="s">
+      <c r="Q9" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="R9" s="11" t="s">
+      <c r="R9" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="S9" s="11" t="s">
+      <c r="S9" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="T9" s="11" t="s">
+      <c r="T9" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="U9" s="11" t="s">
+      <c r="U9" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="V9" s="11" t="s">
+      <c r="V9" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="W9" s="11" t="s">
+      <c r="W9" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="X9" s="11" t="s">
+      <c r="X9" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="Y9" s="11" t="s">
+      <c r="Y9" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="Z9" s="11" t="s">
+      <c r="Z9" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AA9" s="11" t="s">
+      <c r="AA9" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="AB9" s="11" t="s">
+      <c r="AB9" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="AC9" s="11" t="s">
+      <c r="AC9" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="AD9" s="11" t="s">
+      <c r="AD9" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="AE9" s="11" t="s">
+      <c r="AE9" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="AF9" s="11" t="s">
+      <c r="AF9" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="AG9" s="11" t="s">
+      <c r="AG9" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="AH9" s="11" t="s">
+      <c r="AH9" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="AI9" s="12" t="s">
+      <c r="AI9" s="13" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2">
+        <v>44680.275181550925</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="R10" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="T10" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="U10" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="V10" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="W10" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="X10" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y10" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z10" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA10" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB10" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC10" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD10" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE10" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF10" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG10" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH10" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI10" s="15" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Straight_Razor_Entries.xlsx
+++ b/Straight_Razor_Entries.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="93">
   <si>
     <t>Timestamp</t>
   </si>
@@ -337,6 +337,9 @@
   </si>
   <si>
     <t>Kraig Kuster</t>
+  </si>
+  <si>
+    <t>Todd Franzen</t>
   </si>
 </sst>
 </file>
@@ -500,7 +503,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -549,6 +552,12 @@
     <xf borderId="8" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
+    <xf borderId="5" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -596,7 +605,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C2:AI10" displayName="Table_1" name="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C2:AI11" displayName="Table_1" name="Table_1" id="1">
   <tableColumns count="33">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -1913,6 +1922,113 @@
         <v>78</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="2">
+        <v>44680.275181550925</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="O11" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="P11" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q11" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="R11" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="S11" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="T11" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="U11" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="V11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="W11" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="X11" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y11" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z11" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC11" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD11" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE11" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF11" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG11" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH11" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI11" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>

--- a/Straight_Razor_Entries.xlsx
+++ b/Straight_Razor_Entries.xlsx
@@ -177,7 +177,7 @@
     <t>Cam Ward -- Miami (Fla.) Sr QB</t>
   </si>
   <si>
-    <t>Travis Hunter -- Colorado Jr ATH</t>
+    <t>Travis Hunter -- Colorado Jr WR/CB</t>
   </si>
   <si>
     <t>Abdul Carter -- Penn State Jr EDGE</t>
@@ -503,7 +503,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -518,6 +518,9 @@
     </xf>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
@@ -850,6 +853,9 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="3" max="3" width="23.13"/>
+    <col customWidth="1" min="4" max="4" width="23.88"/>
+    <col customWidth="1" min="5" max="5" width="24.75"/>
+    <col customWidth="1" min="7" max="7" width="24.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -972,7 +978,7 @@
       <c r="D2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>38</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -1062,7 +1068,7 @@
       <c r="AH2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AI2" s="5" t="s">
+      <c r="AI2" s="6" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1073,103 +1079,103 @@
       <c r="B3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="R3" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="S3" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="T3" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="U3" s="6" t="s">
+      <c r="U3" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="V3" s="6" t="s">
+      <c r="V3" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="W3" s="6" t="s">
+      <c r="W3" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="X3" s="6" t="s">
+      <c r="X3" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="Y3" s="6" t="s">
+      <c r="Y3" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Z3" s="6" t="s">
+      <c r="Z3" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="AA3" s="6" t="s">
+      <c r="AA3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AB3" s="6" t="s">
+      <c r="AB3" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="AC3" s="6" t="s">
+      <c r="AC3" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="AD3" s="6" t="s">
+      <c r="AD3" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="AE3" s="6" t="s">
+      <c r="AE3" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AF3" s="6" t="s">
+      <c r="AF3" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="AG3" s="6" t="s">
+      <c r="AG3" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="AH3" s="6" t="s">
+      <c r="AH3" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AI3" s="7" t="s">
+      <c r="AI3" s="8" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1180,13 +1186,13 @@
       <c r="B4" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>76</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>38</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -1276,7 +1282,7 @@
       <c r="AH4" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AI4" s="5" t="s">
+      <c r="AI4" s="6" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1287,103 +1293,103 @@
       <c r="B5" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="O5" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="P5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="Q5" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="R5" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="S5" s="6" t="s">
+      <c r="S5" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="T5" s="6" t="s">
+      <c r="T5" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="U5" s="6" t="s">
+      <c r="U5" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="V5" s="6" t="s">
+      <c r="V5" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="W5" s="6" t="s">
+      <c r="W5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="X5" s="6" t="s">
+      <c r="X5" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="Y5" s="6" t="s">
+      <c r="Y5" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="Z5" s="6" t="s">
+      <c r="Z5" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="AA5" s="6" t="s">
+      <c r="AA5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AB5" s="6" t="s">
+      <c r="AB5" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="AC5" s="6" t="s">
+      <c r="AC5" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="AD5" s="6" t="s">
+      <c r="AD5" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="AE5" s="6" t="s">
+      <c r="AE5" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="AF5" s="6" t="s">
+      <c r="AF5" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="AG5" s="6" t="s">
+      <c r="AG5" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="AH5" s="6" t="s">
+      <c r="AH5" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="AI5" s="7" t="s">
+      <c r="AI5" s="8" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1400,7 +1406,7 @@
       <c r="D6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>38</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -1490,7 +1496,7 @@
       <c r="AH6" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AI6" s="5" t="s">
+      <c r="AI6" s="6" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1501,103 +1507,103 @@
       <c r="B7" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="N7" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="O7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="P7" s="6" t="s">
+      <c r="P7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="Q7" s="6" t="s">
+      <c r="Q7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="R7" s="6" t="s">
+      <c r="R7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="S7" s="6" t="s">
+      <c r="S7" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="T7" s="6" t="s">
+      <c r="T7" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="U7" s="6" t="s">
+      <c r="U7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="V7" s="6" t="s">
+      <c r="V7" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="W7" s="6" t="s">
+      <c r="W7" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="X7" s="6" t="s">
+      <c r="X7" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="Y7" s="6" t="s">
+      <c r="Y7" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="Z7" s="6" t="s">
+      <c r="Z7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="AA7" s="6" t="s">
+      <c r="AA7" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="AB7" s="6" t="s">
+      <c r="AB7" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="AC7" s="6" t="s">
+      <c r="AC7" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="AD7" s="6" t="s">
+      <c r="AD7" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="AE7" s="6" t="s">
+      <c r="AE7" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="AF7" s="6" t="s">
+      <c r="AF7" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="AG7" s="6" t="s">
+      <c r="AG7" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="AH7" s="6" t="s">
+      <c r="AH7" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="AI7" s="7" t="s">
+      <c r="AI7" s="8" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1614,7 +1620,7 @@
       <c r="D8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>38</v>
       </c>
       <c r="F8" s="4" t="s">
@@ -1704,7 +1710,7 @@
       <c r="AH8" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AI8" s="5" t="s">
+      <c r="AI8" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1715,103 +1721,103 @@
       <c r="B9" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="M9" s="12" t="s">
+      <c r="M9" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="N9" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="O9" s="12" t="s">
+      <c r="O9" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="P9" s="12" t="s">
+      <c r="P9" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="Q9" s="12" t="s">
+      <c r="Q9" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="R9" s="12" t="s">
+      <c r="R9" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="S9" s="12" t="s">
+      <c r="S9" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="T9" s="12" t="s">
+      <c r="T9" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="U9" s="12" t="s">
+      <c r="U9" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="V9" s="12" t="s">
+      <c r="V9" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="W9" s="12" t="s">
+      <c r="W9" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="X9" s="12" t="s">
+      <c r="X9" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="Y9" s="12" t="s">
+      <c r="Y9" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="Z9" s="12" t="s">
+      <c r="Z9" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AA9" s="12" t="s">
+      <c r="AA9" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AB9" s="12" t="s">
+      <c r="AB9" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="AC9" s="12" t="s">
+      <c r="AC9" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="AD9" s="12" t="s">
+      <c r="AD9" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="AE9" s="12" t="s">
+      <c r="AE9" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="AF9" s="12" t="s">
+      <c r="AF9" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="AG9" s="12" t="s">
+      <c r="AG9" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="AH9" s="12" t="s">
+      <c r="AH9" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AI9" s="13" t="s">
+      <c r="AI9" s="14" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1822,103 +1828,103 @@
       <c r="B10" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="L10" s="14" t="s">
+      <c r="L10" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="M10" s="14" t="s">
+      <c r="M10" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="N10" s="14" t="s">
+      <c r="N10" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="O10" s="14" t="s">
+      <c r="O10" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="P10" s="14" t="s">
+      <c r="P10" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="Q10" s="14" t="s">
+      <c r="Q10" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="R10" s="14" t="s">
+      <c r="R10" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="S10" s="14" t="s">
+      <c r="S10" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="T10" s="14" t="s">
+      <c r="T10" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="U10" s="14" t="s">
+      <c r="U10" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="V10" s="14" t="s">
+      <c r="V10" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="W10" s="14" t="s">
+      <c r="W10" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="X10" s="14" t="s">
+      <c r="X10" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="Y10" s="14" t="s">
+      <c r="Y10" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="Z10" s="14" t="s">
+      <c r="Z10" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="AA10" s="14" t="s">
+      <c r="AA10" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="AB10" s="14" t="s">
+      <c r="AB10" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="AC10" s="14" t="s">
+      <c r="AC10" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AD10" s="14" t="s">
+      <c r="AD10" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="AE10" s="14" t="s">
+      <c r="AE10" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AF10" s="14" t="s">
+      <c r="AF10" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AG10" s="14" t="s">
+      <c r="AG10" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AH10" s="14" t="s">
+      <c r="AH10" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="AI10" s="15" t="s">
+      <c r="AI10" s="16" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1929,105 +1935,108 @@
       <c r="B11" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="J11" s="16" t="s">
+      <c r="J11" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="K11" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="L11" s="16" t="s">
+      <c r="L11" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="M11" s="16" t="s">
+      <c r="M11" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="N11" s="16" t="s">
+      <c r="N11" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="O11" s="16" t="s">
+      <c r="O11" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="P11" s="16" t="s">
+      <c r="P11" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="Q11" s="16" t="s">
+      <c r="Q11" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="R11" s="16" t="s">
+      <c r="R11" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="S11" s="16" t="s">
+      <c r="S11" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="T11" s="16" t="s">
+      <c r="T11" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="U11" s="16" t="s">
+      <c r="U11" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="V11" s="16" t="s">
+      <c r="V11" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="W11" s="16" t="s">
+      <c r="W11" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="X11" s="16" t="s">
+      <c r="X11" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="Y11" s="16" t="s">
+      <c r="Y11" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="Z11" s="16" t="s">
+      <c r="Z11" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="AA11" s="16" t="s">
+      <c r="AA11" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="AB11" s="16" t="s">
+      <c r="AB11" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="AC11" s="16" t="s">
+      <c r="AC11" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AD11" s="16" t="s">
+      <c r="AD11" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="AE11" s="16" t="s">
+      <c r="AE11" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="AF11" s="16" t="s">
+      <c r="AF11" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AG11" s="16" t="s">
+      <c r="AG11" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="AH11" s="16" t="s">
+      <c r="AH11" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="AI11" s="17" t="s">
+      <c r="AI11" s="18" t="s">
         <v>63</v>
       </c>
+    </row>
+    <row r="23">
+      <c r="G23" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId2"/>
